--- a/ConceptMap-R5-SubstanceNucleicAcid-elements-for-R4.xlsx
+++ b/ConceptMap-R5-SubstanceNucleicAcid-elements-for-R4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="104">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:34.4905798-06:00</t>
+    <t>2026-02-09T22:05:44.262563-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -201,18 +201,12 @@
     <t>subunit</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:subunit</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit</t>
   </si>
   <si>
     <t>SubstanceNucleicAcid.subunit.subunit</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:subunit:subunit</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:subunit</t>
   </si>
   <si>
@@ -222,9 +216,6 @@
     <t>sequence</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:subunit:sequence</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:sequence</t>
   </si>
   <si>
@@ -234,9 +225,6 @@
     <t>length</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:subunit:length</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:length</t>
   </si>
   <si>
@@ -246,9 +234,6 @@
     <t>sequenceAttachment</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:subunit:sequenceAttachment</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:sequenceAttachment</t>
   </si>
   <si>
@@ -258,9 +243,6 @@
     <t>fivePrime</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:subunit:fivePrime</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:fivePrime</t>
   </si>
   <si>
@@ -270,9 +252,6 @@
     <t>threePrime</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:subunit:threePrime</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:threePrime</t>
   </si>
   <si>
@@ -282,9 +261,6 @@
     <t>linkage</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:subunit:linkage</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.linkage</t>
   </si>
   <si>
@@ -294,9 +270,6 @@
     <t>connectivity</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:subunit:linkage:connectivity</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.linkage:connectivity</t>
   </si>
   <si>
@@ -306,9 +279,6 @@
     <t>identifier</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:subunit:linkage:identifier</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.linkage:identifier</t>
   </si>
   <si>
@@ -318,9 +288,6 @@
     <t>name</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:subunit:linkage:name</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.linkage:name</t>
   </si>
   <si>
@@ -330,9 +297,6 @@
     <t>residueSite</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:subunit:linkage:residueSite</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.linkage:residueSite</t>
   </si>
   <si>
@@ -342,34 +306,22 @@
     <t>sugar</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:subunit:sugar</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.sugar</t>
   </si>
   <si>
     <t>SubstanceNucleicAcid.subunit.sugar.identifier</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:subunit:sugar:identifier</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.sugar:identifier</t>
   </si>
   <si>
     <t>SubstanceNucleicAcid.subunit.sugar.name</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:subunit:sugar:name</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.sugar:name</t>
   </si>
   <si>
     <t>SubstanceNucleicAcid.subunit.sugar.residueSite</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:subunit:sugar:residueSite</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.sugar:residueSite</t>
@@ -629,7 +581,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -812,406 +764,198 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>61</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="E28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="E44" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-SubstanceNucleicAcid-elements-for-R4.xlsx
+++ b/ConceptMap-R5-SubstanceNucleicAcid-elements-for-R4.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.262563-06:00</t>
+    <t>2026-02-17T14:42:27.5816922-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -165,7 +165,7 @@
     <t>sequenceType</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:sequenceType</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.sequenceType</t>
   </si>
   <si>
     <t>SubstanceNucleicAcid.numberOfSubunits</t>
@@ -174,7 +174,7 @@
     <t>numberOfSubunits</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:numberOfSubunits</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.numberOfSubunits</t>
   </si>
   <si>
     <t>SubstanceNucleicAcid.areaOfHybridisation</t>
@@ -183,7 +183,7 @@
     <t>areaOfHybridisation</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:areaOfHybridisation</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.areaOfHybridisation</t>
   </si>
   <si>
     <t>SubstanceNucleicAcid.oligoNucleotideType</t>
@@ -192,7 +192,7 @@
     <t>oligoNucleotideType</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:oligoNucleotideType</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.oligoNucleotideType</t>
   </si>
   <si>
     <t>SubstanceNucleicAcid.subunit</t>
@@ -207,7 +207,7 @@
     <t>SubstanceNucleicAcid.subunit.subunit</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:subunit</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.subunit</t>
   </si>
   <si>
     <t>SubstanceNucleicAcid.subunit.sequence</t>
@@ -216,7 +216,7 @@
     <t>sequence</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:sequence</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.sequence</t>
   </si>
   <si>
     <t>SubstanceNucleicAcid.subunit.length</t>
@@ -225,7 +225,7 @@
     <t>length</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:length</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.length</t>
   </si>
   <si>
     <t>SubstanceNucleicAcid.subunit.sequenceAttachment</t>
@@ -234,7 +234,7 @@
     <t>sequenceAttachment</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:sequenceAttachment</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.sequenceAttachment</t>
   </si>
   <si>
     <t>SubstanceNucleicAcid.subunit.fivePrime</t>
@@ -243,7 +243,7 @@
     <t>fivePrime</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:fivePrime</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.fivePrime</t>
   </si>
   <si>
     <t>SubstanceNucleicAcid.subunit.threePrime</t>
@@ -252,7 +252,7 @@
     <t>threePrime</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:threePrime</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.threePrime</t>
   </si>
   <si>
     <t>SubstanceNucleicAcid.subunit.linkage</t>
@@ -270,7 +270,7 @@
     <t>connectivity</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.linkage:connectivity</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.linkage:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.linkage.connectivity</t>
   </si>
   <si>
     <t>SubstanceNucleicAcid.subunit.linkage.identifier</t>
@@ -279,7 +279,7 @@
     <t>identifier</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.linkage:identifier</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.linkage:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.linkage.identifier</t>
   </si>
   <si>
     <t>SubstanceNucleicAcid.subunit.linkage.name</t>
@@ -288,7 +288,7 @@
     <t>name</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.linkage:name</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.linkage:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.linkage.name</t>
   </si>
   <si>
     <t>SubstanceNucleicAcid.subunit.linkage.residueSite</t>
@@ -297,7 +297,7 @@
     <t>residueSite</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.linkage:residueSite</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.linkage:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.linkage.residueSite</t>
   </si>
   <si>
     <t>SubstanceNucleicAcid.subunit.sugar</t>
@@ -312,19 +312,19 @@
     <t>SubstanceNucleicAcid.subunit.sugar.identifier</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.sugar:identifier</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.sugar:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.sugar.identifier</t>
   </si>
   <si>
     <t>SubstanceNucleicAcid.subunit.sugar.name</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.sugar:name</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.sugar:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.sugar.name</t>
   </si>
   <si>
     <t>SubstanceNucleicAcid.subunit.sugar.residueSite</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.sugar:residueSite</t>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.sugar:http://hl7.org/fhir/5.0/StructureDefinition/extension-SubstanceNucleicAcid.subunit.sugar.residueSite</t>
   </si>
 </sst>
 </file>
